--- a/02_MasterWifoMannheim/99_Backup/Course119.xlsx
+++ b/02_MasterWifoMannheim/99_Backup/Course119.xlsx
@@ -1,133 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_2B59D2BFD32051265F59281159E4883758B3F944" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80D367D1-0268-4C80-B7CA-077FFF698A88}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>MAN 656 Mergers &amp; Acquisitions</t>
-  </si>
-  <si>
-    <t>Contents</t>
-  </si>
-  <si>
-    <t>For decades, mergers and acquisitions (M&amp;A) have continued to be the primary vehicle for reshaping firms’ business portfolios. Both the rationales and economic outcomes of mergers and acquisitions, however, have remained a source of controversy in both academic research and business practice. The purpose of this course is to unpack which of the “received wisdoms” on mergers and acquisitions really hold up to rigorous scrutiny and which ones do not. To serve this purpose, we will systematically review the key determinants of acquisitions, and discuss the economic outcomes of acquisitions coupled with the key contingencies influencing acquisition outcomes. tools for analyzing and implementing acquisitions.</t>
-  </si>
-  <si>
-    <t>Learning outcomes</t>
-  </si>
-  <si>
-    <t>Students will acquire and demonstrate expert knowledge in the specific subject area of M&amp;A.Students will be able to apply and critically reflect upon contemporary theories, models and tools utilized in M&amp;A research and practice. When analyzing fictitious or real-life M&amp;A transactions, students will be able to identify key issues, derive appropriate solutions, and have good understanding of their impact on transaction outcomes. Students will be able to design and deliver professional and effective oral presentations of their own transaction analyses.</t>
-  </si>
-  <si>
-    <t>Obligatory registrationFurther Information on the registration</t>
-  </si>
-  <si>
-    <t>Courses Hours per week Self-study Lecture 2 8 Exercise class 2</t>
-  </si>
-  <si>
-    <t>ECTS</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Form of assessment</t>
-  </si>
-  <si>
-    <t>Written exam and assignment/presentation in exercise class</t>
-  </si>
-  <si>
-    <t>Preliminary course work -</t>
-  </si>
-  <si>
-    <t>Lecturer/Person in charge</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Matthias Brauer</t>
-  </si>
-  <si>
-    <t>Duration of module</t>
-  </si>
-  <si>
-    <t>1 semester</t>
-  </si>
-  <si>
-    <t>Offering</t>
-  </si>
-  <si>
-    <t>Fall semester</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Program-specific educational goals</t>
-  </si>
-  <si>
-    <t>Grade</t>
-  </si>
-  <si>
-    <t>graded</t>
-  </si>
-  <si>
-    <t>Range of application</t>
-  </si>
-  <si>
-    <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Inf., M.Sc. Bus. Edu., LL.M., M.Sc. Econ., M.A. K&amp;W</t>
-  </si>
-  <si>
-    <t>Not Taken</t>
-  </si>
-  <si>
-    <t>MAN 654</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -142,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -466,137 +420,201 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>MAN 656 Mergers &amp; Acquisitions</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Contents</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>For decades, mergers and acquisitions (M&amp;A) have continued to be the primary vehicle for reshaping firms’ business portfolios. Both the rationales and economic outcomes of mergers and acquisitions, however, have remained a source of controversy in both academic research and business practice. The purpose of this course is to unpack which of the “received wisdoms” on mergers and acquisitions really hold up to rigorous scrutiny and which ones do not. To serve this purpose, we will systematically review the key determinants of acquisitions, and discuss the economic outcomes of acquisitions coupled with the key contingencies influencing acquisition outcomes. tools for analyzing and implementing acquisitions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Learning outcomes</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Students will acquire and demonstrate expert knowledge in the specific subject area of M&amp;A.Students will be able to apply and critically reflect upon contemporary theories, models and tools utilized in M&amp;A research and practice. When analyzing fictitious or real-life M&amp;A transactions, students will be able to identify key issues, derive appropriate solutions, and have good understanding of their impact on transaction outcomes. Students will be able to design and deliver professional and effective oral presentations of their own transaction analyses.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Not Taken</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>MAN 654</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Obligatory registrationFurther Information on the registration</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Courses Hours per week Self-study Lecture 2 8 Exercise class 2</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ECTS</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Form of assessment</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Written exam and assignment/presentation in exercise class</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Preliminary course work -</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Lecturer/Person in charge</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Prof. Dr. Matthias Brauer</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Duration of module</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1 semester</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Offering</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>FWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Language</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Program-specific educational goals</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>graded</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Range of application</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Inf., M.Sc. Bus. Edu., LL.M., M.Sc. Econ., M.A. K&amp;W</t>
+        </is>
       </c>
     </row>
   </sheetData>
